--- a/biology/Médecine/Muscle_infra-hyoïdien/Muscle_infra-hyoïdien.xlsx
+++ b/biology/Médecine/Muscle_infra-hyoïdien/Muscle_infra-hyoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_infra-hyo%C3%AFdien</t>
+          <t>Muscle_infra-hyoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les muscles infra-hyoïdiens (ou muscles sous-hyoïdiens), sont les quatre muscles antérieurs du cou situés sous l'os hyoïde devant les viscères cervicaux[1].
-À l'exclusion du muscle sterno-thyroïdien, les muscles infra-hyoïdiens ont un point d'insertion sur l'os hyoïde[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles infra-hyoïdiens (ou muscles sous-hyoïdiens), sont les quatre muscles antérieurs du cou situés sous l'os hyoïde devant les viscères cervicaux.
+À l'exclusion du muscle sterno-thyroïdien, les muscles infra-hyoïdiens ont un point d'insertion sur l'os hyoïde,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_infra-hyo%C3%AFdien</t>
+          <t>Muscle_infra-hyoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Innervation
-Tous les muscles sous-hyoïdiens sont innervés par l'anse cervicale issue du plexus cervical à l'exception du muscle thyro-hyoïdien qui est innervé uniquement par les fibres du premier nerf rachidien cervical via le nerf hypoglosse[1].
-Action
-Les muscles sous-hyoïdiens ont pour fonction d'élever et d'abaisser l'os hyoïde et le larynx pendant la déglutition et la parole.
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les muscles sous-hyoïdiens sont innervés par l'anse cervicale issue du plexus cervical à l'exception du muscle thyro-hyoïdien qui est innervé uniquement par les fibres du premier nerf rachidien cervical via le nerf hypoglosse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Muscle_infra-hyoïdien</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_infra-hyo%C3%AFdien</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les muscles infra-hyoïdiens</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles sous-hyoïdiens ont pour fonction d'élever et d'abaisser l'os hyoïde et le larynx pendant la déglutition et la parole.
 </t>
         </is>
       </c>
